--- a/Orders.xlsx
+++ b/Orders.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Информация о турнире</t>
   </si>
@@ -79,6 +79,45 @@
   </si>
   <si>
     <t>Раздел</t>
+  </si>
+  <si>
+    <t>Куприянов</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>поинтфайтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Луганск </t>
+  </si>
+  <si>
+    <t>ЛНР г.Луганск</t>
+  </si>
+  <si>
+    <t>КМС</t>
+  </si>
+  <si>
+    <t>Ханас А.Д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пахоленко  </t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щербак  </t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>44.3</t>
   </si>
 </sst>
 </file>
@@ -281,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -298,6 +337,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,7 +655,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K16" sqref="H16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +675,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -650,10 +690,10 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -676,19 +716,19 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
@@ -726,39 +766,91 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="D14" s="10">
+        <v>36951</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="D15" s="11">
+        <v>37040</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44.4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="11">
+        <v>37162</v>
+      </c>
+      <c r="E16" s="8">
+        <v>44.5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
